--- a/clcore/temp/pages/StructureDefinition-CoreLocalizacionCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-CoreLocalizacionCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-21T10:22:43+10:00</t>
+    <t>2023-06-27T22:42:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/temp/pages/StructureDefinition-CoreLocalizacionCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-CoreLocalizacionCl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2847" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2847" uniqueCount="492">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>1.8.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T22:42:19-04:00</t>
+    <t>2023-09-01T14:45:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -149,6 +149,10 @@
   </si>
   <si>
     <t>Details and position information for a physical place where services are provided and resources and participants may be stored, found, contained, or accommodated.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -2001,10 +2005,10 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>38</v>
@@ -2012,10 +2016,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2026,7 +2030,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -2035,19 +2039,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2097,13 +2101,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2120,10 +2124,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2134,7 +2138,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2143,16 +2147,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2203,19 +2207,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2226,10 +2230,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2240,28 +2244,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2311,19 +2315,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2334,10 +2338,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2348,7 +2352,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2360,16 +2364,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2395,13 +2399,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2419,19 +2423,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2442,21 +2446,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2468,16 +2472,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2527,22 +2531,22 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>38</v>
@@ -2550,14 +2554,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2576,16 +2580,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2635,7 +2639,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2650,7 +2654,7 @@
         <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>38</v>
@@ -2658,14 +2662,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2684,16 +2688,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2743,7 +2747,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2755,10 +2759,10 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>38</v>
@@ -2766,14 +2770,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2786,25 +2790,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2853,7 +2857,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2865,10 +2869,10 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>38</v>
@@ -2876,10 +2880,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2893,26 +2897,26 @@
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2961,7 +2965,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2973,21 +2977,21 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2998,7 +3002,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -3010,13 +3014,13 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3067,13 +3071,13 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
@@ -3082,7 +3086,7 @@
         <v>38</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>38</v>
@@ -3090,14 +3094,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3116,16 +3120,16 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3163,19 +3167,19 @@
         <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3187,10 +3191,10 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>38</v>
@@ -3198,10 +3202,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3212,31 +3216,31 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3261,13 +3265,13 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
@@ -3285,22 +3289,22 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>38</v>
@@ -3308,10 +3312,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3322,7 +3326,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3331,22 +3335,22 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -3371,13 +3375,13 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
@@ -3395,22 +3399,22 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>38</v>
@@ -3418,10 +3422,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3432,31 +3436,31 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -3469,7 +3473,7 @@
         <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>38</v>
@@ -3505,22 +3509,22 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
@@ -3528,10 +3532,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3542,28 +3546,28 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3577,7 +3581,7 @@
         <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>38</v>
@@ -3613,22 +3617,22 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>38</v>
@@ -3636,10 +3640,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3650,7 +3654,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3659,16 +3663,16 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3719,22 +3723,22 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>38</v>
@@ -3742,10 +3746,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3756,7 +3760,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3765,19 +3769,19 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3827,22 +3831,22 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
@@ -3850,10 +3854,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3864,25 +3868,25 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3909,13 +3913,13 @@
         <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>38</v>
@@ -3933,33 +3937,33 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3970,7 +3974,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3979,16 +3983,16 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4015,13 +4019,13 @@
         <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>38</v>
@@ -4039,33 +4043,33 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4076,28 +4080,28 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4147,22 +4151,22 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>38</v>
@@ -4170,10 +4174,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4187,7 +4191,7 @@
         <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>38</v>
@@ -4196,19 +4200,19 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -4257,7 +4261,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4269,10 +4273,10 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>38</v>
@@ -4280,10 +4284,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4294,7 +4298,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4303,20 +4307,20 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
@@ -4365,22 +4369,22 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>38</v>
@@ -4388,10 +4392,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4402,7 +4406,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4411,22 +4415,22 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4451,13 +4455,13 @@
         <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>38</v>
@@ -4475,33 +4479,33 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4515,22 +4519,22 @@
         <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4557,13 +4561,13 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>38</v>
@@ -4581,7 +4585,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4593,21 +4597,21 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4618,7 +4622,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4630,13 +4634,13 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4687,13 +4691,13 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
@@ -4702,7 +4706,7 @@
         <v>38</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>38</v>
@@ -4710,14 +4714,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4736,16 +4740,16 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4783,19 +4787,19 @@
         <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4807,10 +4811,10 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>38</v>
@@ -4818,10 +4822,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4841,22 +4845,22 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -4905,7 +4909,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4917,10 +4921,10 @@
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>38</v>
@@ -4928,10 +4932,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4942,7 +4946,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4954,13 +4958,13 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5011,13 +5015,13 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
@@ -5026,7 +5030,7 @@
         <v>38</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>38</v>
@@ -5034,14 +5038,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5060,16 +5064,16 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5107,19 +5111,19 @@
         <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5131,10 +5135,10 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>38</v>
@@ -5142,10 +5146,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5156,7 +5160,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5165,22 +5169,22 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5205,13 +5209,13 @@
         <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>38</v>
@@ -5229,22 +5233,22 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>38</v>
@@ -5252,10 +5256,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5266,7 +5270,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5275,19 +5279,19 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5337,22 +5341,22 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>38</v>
@@ -5360,10 +5364,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5374,29 +5378,29 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -5445,22 +5449,22 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>38</v>
@@ -5468,10 +5472,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5482,7 +5486,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -5491,20 +5495,20 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5553,22 +5557,22 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>38</v>
@@ -5576,10 +5580,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5590,7 +5594,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -5599,22 +5603,22 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5663,22 +5667,22 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>38</v>
@@ -5686,10 +5690,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5700,7 +5704,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -5709,22 +5713,22 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -5773,22 +5777,22 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>38</v>
@@ -5796,10 +5800,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5813,7 +5817,7 @@
         <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>38</v>
@@ -5822,13 +5826,13 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5879,7 +5883,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5891,10 +5895,10 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>38</v>
@@ -5902,10 +5906,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5916,7 +5920,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -5928,13 +5932,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5985,13 +5989,13 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
@@ -6000,7 +6004,7 @@
         <v>38</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>38</v>
@@ -6008,14 +6012,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6034,16 +6038,16 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6081,19 +6085,19 @@
         <v>38</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6105,10 +6109,10 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>38</v>
@@ -6116,10 +6120,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6130,7 +6134,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6139,16 +6143,16 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6175,13 +6179,13 @@
         <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>38</v>
@@ -6199,22 +6203,22 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>38</v>
@@ -6222,10 +6226,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6236,7 +6240,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6245,22 +6249,22 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6309,22 +6313,22 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>38</v>
@@ -6332,10 +6336,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6346,31 +6350,31 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6395,11 +6399,11 @@
         <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>38</v>
@@ -6417,22 +6421,22 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>38</v>
@@ -6440,10 +6444,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6454,7 +6458,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6463,19 +6467,19 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6525,22 +6529,22 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>38</v>
@@ -6548,10 +6552,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6562,7 +6566,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6571,16 +6575,16 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6631,22 +6635,22 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>38</v>
@@ -6654,10 +6658,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6668,10 +6672,10 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>38</v>
@@ -6680,19 +6684,19 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -6741,22 +6745,22 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>38</v>
@@ -6764,10 +6768,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6778,7 +6782,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -6790,13 +6794,13 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6847,13 +6851,13 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
@@ -6862,7 +6866,7 @@
         <v>38</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>38</v>
@@ -6870,14 +6874,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6896,16 +6900,16 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6943,19 +6947,19 @@
         <v>38</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -6967,10 +6971,10 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>38</v>
@@ -6978,10 +6982,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6992,31 +6996,31 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7029,7 +7033,7 @@
         <v>38</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>38</v>
@@ -7041,13 +7045,13 @@
         <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>38</v>
@@ -7065,22 +7069,22 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>38</v>
@@ -7088,10 +7092,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7102,7 +7106,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7111,19 +7115,19 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7137,7 +7141,7 @@
         <v>38</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>38</v>
@@ -7149,13 +7153,13 @@
         <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>38</v>
@@ -7173,22 +7177,22 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>38</v>
@@ -7196,10 +7200,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7210,7 +7214,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7219,22 +7223,22 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -7247,7 +7251,7 @@
         <v>38</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>38</v>
@@ -7283,22 +7287,22 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>38</v>
@@ -7306,10 +7310,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7323,22 +7327,22 @@
         <v>40</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7353,7 +7357,7 @@
         <v>38</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>38</v>
@@ -7389,7 +7393,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7401,10 +7405,10 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>38</v>
@@ -7412,39 +7416,39 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7459,7 +7463,7 @@
         <v>38</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>38</v>
@@ -7471,13 +7475,13 @@
         <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>38</v>
@@ -7495,22 +7499,22 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>38</v>
@@ -7518,42 +7522,42 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7567,7 +7571,7 @@
         <v>38</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>38</v>
@@ -7579,13 +7583,13 @@
         <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>38</v>
@@ -7603,22 +7607,22 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>38</v>
@@ -7626,39 +7630,39 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7685,13 +7689,13 @@
         <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>38</v>
@@ -7709,22 +7713,22 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>38</v>
@@ -7732,21 +7736,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -7755,16 +7759,16 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7779,7 +7783,7 @@
         <v>38</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>38</v>
@@ -7815,22 +7819,22 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>38</v>
@@ -7838,10 +7842,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7852,28 +7856,28 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7899,11 +7903,11 @@
         <v>38</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>38</v>
@@ -7921,22 +7925,22 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>38</v>
@@ -7944,10 +7948,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7958,7 +7962,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -7967,20 +7971,20 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
@@ -7993,7 +7997,7 @@
         <v>38</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>38</v>
@@ -8029,22 +8033,22 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>38</v>
@@ -8052,10 +8056,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8066,7 +8070,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8075,20 +8079,20 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
@@ -8113,13 +8117,13 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8137,33 +8141,33 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8174,10 +8178,10 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>38</v>
@@ -8186,17 +8190,17 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8245,22 +8249,22 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>38</v>
@@ -8268,10 +8272,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8282,7 +8286,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8294,13 +8298,13 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8351,13 +8355,13 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
@@ -8366,7 +8370,7 @@
         <v>38</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>38</v>
@@ -8374,14 +8378,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8400,16 +8404,16 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8459,7 +8463,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8471,10 +8475,10 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>38</v>
@@ -8482,14 +8486,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8502,25 +8506,25 @@
         <v>38</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>38</v>
@@ -8569,7 +8573,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -8581,10 +8585,10 @@
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>38</v>
@@ -8592,10 +8596,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8603,13 +8607,13 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>38</v>
@@ -8618,13 +8622,13 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8675,22 +8679,22 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>38</v>
@@ -8698,10 +8702,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8709,13 +8713,13 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>38</v>
@@ -8724,13 +8728,13 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8781,22 +8785,22 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>38</v>
@@ -8804,10 +8808,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8818,7 +8822,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>38</v>
@@ -8830,13 +8834,13 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8887,22 +8891,22 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>38</v>
@@ -8910,10 +8914,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8924,31 +8928,31 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>38</v>
@@ -8997,22 +9001,22 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>38</v>
@@ -9020,10 +9024,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9034,7 +9038,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>38</v>
@@ -9046,13 +9050,13 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9103,13 +9107,13 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>38</v>
@@ -9118,7 +9122,7 @@
         <v>38</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>38</v>
@@ -9126,14 +9130,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9152,16 +9156,16 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9199,19 +9203,19 @@
         <v>38</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -9223,10 +9227,10 @@
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>38</v>
@@ -9234,10 +9238,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9248,7 +9252,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>38</v>
@@ -9257,19 +9261,19 @@
         <v>38</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9319,22 +9323,22 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>38</v>
@@ -9342,10 +9346,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9356,7 +9360,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>38</v>
@@ -9365,19 +9369,19 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9403,13 +9407,13 @@
         <v>38</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>38</v>
@@ -9427,22 +9431,22 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>38</v>
@@ -9450,10 +9454,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9464,7 +9468,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>38</v>
@@ -9473,19 +9477,19 @@
         <v>38</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9535,22 +9539,22 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>38</v>
@@ -9558,10 +9562,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9572,7 +9576,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>38</v>
@@ -9581,19 +9585,19 @@
         <v>38</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9643,22 +9647,22 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>38</v>
@@ -9666,10 +9670,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9680,7 +9684,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>38</v>
@@ -9692,17 +9696,17 @@
         <v>38</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>38</v>
@@ -9751,22 +9755,22 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>38</v>
@@ -9774,10 +9778,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9791,7 +9795,7 @@
         <v>40</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>38</v>
@@ -9800,16 +9804,16 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9859,7 +9863,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -9871,10 +9875,10 @@
         <v>38</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>38</v>
@@ -9882,10 +9886,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9896,7 +9900,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>38</v>
@@ -9908,13 +9912,13 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9965,13 +9969,13 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>38</v>
@@ -9980,7 +9984,7 @@
         <v>38</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>38</v>
@@ -9988,14 +9992,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10014,16 +10018,16 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10073,7 +10077,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -10085,10 +10089,10 @@
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>38</v>
@@ -10096,14 +10100,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10116,25 +10120,25 @@
         <v>38</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
@@ -10183,7 +10187,7 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -10195,10 +10199,10 @@
         <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>38</v>
@@ -10206,10 +10210,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10232,13 +10236,13 @@
         <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10265,13 +10269,13 @@
         <v>38</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>38</v>
@@ -10289,7 +10293,7 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -10301,10 +10305,10 @@
         <v>38</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>38</v>
@@ -10312,10 +10316,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10326,7 +10330,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>38</v>
@@ -10338,13 +10342,13 @@
         <v>38</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10395,22 +10399,22 @@
         <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>38</v>
@@ -10418,10 +10422,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10432,7 +10436,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>38</v>
@@ -10444,13 +10448,13 @@
         <v>38</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10501,22 +10505,22 @@
         <v>38</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>38</v>
@@ -10524,10 +10528,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10538,7 +10542,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>38</v>
@@ -10550,13 +10554,13 @@
         <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10607,22 +10611,22 @@
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>38</v>
@@ -10630,10 +10634,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10644,10 +10648,10 @@
         <v>39</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>38</v>
@@ -10656,13 +10660,13 @@
         <v>38</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10713,22 +10717,22 @@
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>38</v>
@@ -10736,10 +10740,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10762,17 +10766,17 @@
         <v>38</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>38</v>
@@ -10821,7 +10825,7 @@
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -10833,10 +10837,10 @@
         <v>38</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>38</v>

--- a/clcore/temp/pages/StructureDefinition-CoreLocalizacionCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-CoreLocalizacionCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.2</t>
+    <t>1.8.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T14:45:29-04:00</t>
+    <t>2023-10-31T17:56:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/temp/pages/StructureDefinition-CoreLocalizacionCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-CoreLocalizacionCl.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T12:29:21-03:00</t>
+    <t>2023-11-13T14:28:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1080,267 +1080,27 @@
     <t>Location.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/cl-address}
 </t>
   </si>
   <si>
-    <t>Dirección de la Localiación</t>
-  </si>
-  <si>
-    <t>Se definirá la dirección en una línea y se podría codificar en city la comuna, en district la provincia y en state la región</t>
-  </si>
-  <si>
-    <t>Additional addresses should be recorded using another instance of the Location resource, or via the Organization.</t>
+    <t>Tipo de dato para agragar la dirección de un paciente</t>
+  </si>
+  <si>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
+  </si>
+  <si>
+    <t>Variable dirección</t>
   </si>
   <si>
     <t>If locations can be visited, we need to keep track of their address.</t>
   </si>
   <si>
-    <t>.addr</t>
-  </si>
-  <si>
-    <t>Location.address.id</t>
-  </si>
-  <si>
-    <t>Location.address.extension</t>
-  </si>
-  <si>
-    <t>Location.address.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>Location.address.type</t>
-  </si>
-  <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.type</t>
-  </si>
-  <si>
-    <t>Location.address.text</t>
-  </si>
-  <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
-  </si>
-  <si>
-    <t>Address.text</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>Location.address.line</t>
-  </si>
-  <si>
-    <t>Calle o avenida, numero y casa o depto</t>
-  </si>
-  <si>
-    <t>Aquí se escribe toda la dirección completa</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street</t>
-  </si>
-  <si>
-    <t>Address.line</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = AL]</t>
-  </si>
-  <si>
-    <t>Location.address.city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municpality
+    <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Campo para Comuna de residencia</t>
-  </si>
-  <si>
-    <t>Campo para Comuna de residencia. Se usa el valueSet de códigos de comunas definidos a nivel naciona.</t>
-  </si>
-  <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
-    <t>Códigos Comuna, Ministerio del Interior, 2018</t>
-  </si>
-  <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSCodigosComunaCL</t>
-  </si>
-  <si>
-    <t>Address.city</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>Location.address.district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County
-</t>
-  </si>
-  <si>
-    <t>Campo para Provincia de Residencia</t>
-  </si>
-  <si>
-    <t>Campo para Provincia de Residencia. Se usa el valueSet de códigos de provicias definidos a nivel naciona.</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Códigos Provincia, Ministerio del Interior, 2018</t>
-  </si>
-  <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSCodigosProvinciasCL</t>
-  </si>
-  <si>
-    <t>Address.district</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>Location.address.state</t>
-  </si>
-  <si>
-    <t>Province
-Territory</t>
-  </si>
-  <si>
-    <t>Campo para la Región</t>
-  </si>
-  <si>
-    <t>Campo Región. Se usa el valueSet de códigos de regiones definidos a nivel naciona.</t>
-  </si>
-  <si>
-    <t>Códigos Regiones, Ministerio del Interior, 2018</t>
-  </si>
-  <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSCodigosRegionesCL</t>
-  </si>
-  <si>
-    <t>Address.state</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = STA]</t>
-  </si>
-  <si>
-    <t>Location.address.postalCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip
-</t>
-  </si>
-  <si>
-    <t>Postal code for area</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
-  </si>
-  <si>
-    <t>9132</t>
-  </si>
-  <si>
-    <t>Address.postalCode</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
-    <t>Location.address.country</t>
-  </si>
-  <si>
-    <t>Campo para País de Residencia</t>
-  </si>
-  <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
-  </si>
-  <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/CodPais</t>
-  </si>
-  <si>
-    <t>Address.country</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
-    <t>Location.address.period</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23"/&gt;
-  &lt;end value="2010-07-01"/&gt;
-&lt;/valuePeriod&gt;</t>
-  </si>
-  <si>
-    <t>Address.period</t>
+    <t>AD</t>
   </si>
   <si>
     <t>Location.physicalType</t>
@@ -1975,7 +1735,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL84"/>
+  <dimension ref="A1:AL72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1994,7 +1754,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="22.921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.5078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6985,13 +6745,13 @@
         <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6999,10 +6759,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7022,19 +6782,21 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>151</v>
+        <v>353</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>152</v>
+        <v>354</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7058,13 +6820,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -7082,7 +6844,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>153</v>
+        <v>352</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7094,35 +6856,35 @@
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>154</v>
+        <v>359</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>76</v>
@@ -7131,18 +6893,18 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>131</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7178,34 +6940,34 @@
         <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>154</v>
+        <v>365</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7213,10 +6975,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7230,29 +6992,25 @@
         <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>354</v>
+        <v>151</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7264,7 +7022,7 @@
         <v>76</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>358</v>
+        <v>76</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>76</v>
@@ -7276,13 +7034,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7300,7 +7058,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>361</v>
+        <v>153</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7312,10 +7070,10 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>332</v>
+        <v>154</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7323,21 +7081,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7346,19 +7104,19 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>363</v>
+        <v>132</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>364</v>
+        <v>156</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>365</v>
+        <v>134</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7372,7 +7130,7 @@
         <v>76</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>76</v>
@@ -7384,13 +7142,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7408,22 +7166,22 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>369</v>
+        <v>160</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>332</v>
+        <v>154</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7431,45 +7189,45 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>76</v>
+        <v>369</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>373</v>
+        <v>134</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>374</v>
+        <v>140</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7482,7 +7240,7 @@
         <v>76</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>76</v>
@@ -7518,22 +7276,22 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7541,10 +7299,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7552,10 +7310,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>86</v>
@@ -7564,16 +7322,16 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>150</v>
+        <v>374</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7588,7 +7346,7 @@
         <v>76</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>76</v>
@@ -7624,13 +7382,13 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
@@ -7639,7 +7397,7 @@
         <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7647,18 +7405,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>385</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>85</v>
@@ -7670,16 +7428,16 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>150</v>
+        <v>374</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7694,7 +7452,7 @@
         <v>76</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>388</v>
+        <v>76</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>76</v>
@@ -7706,13 +7464,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>390</v>
+        <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -7730,10 +7488,10 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>85</v>
@@ -7745,7 +7503,7 @@
         <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7753,14 +7511,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>394</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7770,26 +7528,24 @@
         <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>150</v>
+        <v>374</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7802,7 +7558,7 @@
         <v>76</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>76</v>
@@ -7814,13 +7570,13 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -7838,7 +7594,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7853,7 +7609,7 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7861,14 +7617,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>404</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7887,16 +7643,20 @@
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
       </c>
@@ -7920,13 +7680,13 @@
         <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>408</v>
+        <v>76</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>76</v>
@@ -7944,7 +7704,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7959,7 +7719,7 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7967,14 +7727,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>412</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7990,16 +7750,16 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>150</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>413</v>
+        <v>151</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>414</v>
+        <v>152</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8014,7 +7774,7 @@
         <v>76</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>415</v>
+        <v>76</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>76</v>
@@ -8050,7 +7810,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>416</v>
+        <v>153</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8062,10 +7822,10 @@
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>417</v>
+        <v>154</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -8073,42 +7833,42 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>419</v>
+        <v>132</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>419</v>
+        <v>156</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>420</v>
+        <v>134</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8134,44 +7894,46 @@
         <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="Y57" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z57" t="s" s="2">
-        <v>421</v>
+        <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>422</v>
+        <v>160</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>423</v>
+        <v>154</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -8179,10 +7941,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8205,18 +7967,18 @@
         <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
       </c>
@@ -8228,7 +7990,7 @@
         <v>76</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>76</v>
@@ -8264,7 +8026,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8273,13 +8035,13 @@
         <v>85</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>76</v>
+        <v>396</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>343</v>
+        <v>128</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -8287,10 +8049,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8313,18 +8075,18 @@
         <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8348,13 +8110,13 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>434</v>
+        <v>177</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -8372,7 +8134,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8387,18 +8149,18 @@
         <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>437</v>
+        <v>128</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8412,27 +8174,27 @@
         <v>85</v>
       </c>
       <c r="H60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K60" t="s" s="2">
-        <v>439</v>
+        <v>143</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8480,7 +8242,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8495,7 +8257,7 @@
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
@@ -8503,10 +8265,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8526,18 +8288,20 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>150</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>151</v>
+        <v>411</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -8586,7 +8350,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>153</v>
+        <v>414</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8598,10 +8362,10 @@
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8609,21 +8373,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8635,18 +8399,18 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>131</v>
+        <v>416</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>132</v>
+        <v>417</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8694,22 +8458,22 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>154</v>
+        <v>420</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -8717,14 +8481,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>447</v>
+        <v>76</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8734,29 +8498,27 @@
         <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>131</v>
+        <v>361</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>76</v>
       </c>
@@ -8804,7 +8566,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -8816,10 +8578,10 @@
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>128</v>
+        <v>425</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -8827,10 +8589,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8838,13 +8600,13 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>76</v>
@@ -8853,13 +8615,13 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>452</v>
+        <v>150</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>453</v>
+        <v>151</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>454</v>
+        <v>152</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8910,10 +8672,10 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>451</v>
+        <v>153</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>85</v>
@@ -8922,10 +8684,10 @@
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>455</v>
+        <v>154</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -8933,24 +8695,24 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>76</v>
@@ -8959,15 +8721,17 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>452</v>
+        <v>131</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>457</v>
+        <v>132</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -9016,22 +8780,22 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>456</v>
+        <v>160</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>455</v>
+        <v>154</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -9039,42 +8803,46 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>76</v>
+        <v>369</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>452</v>
+        <v>131</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9122,22 +8890,22 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>459</v>
+        <v>372</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>455</v>
+        <v>128</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9145,10 +8913,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9159,32 +8927,28 @@
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9208,13 +8972,13 @@
         <v>76</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>76</v>
+        <v>432</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>76</v>
+        <v>433</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>76</v>
@@ -9232,13 +8996,13 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
@@ -9247,7 +9011,7 @@
         <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -9255,10 +9019,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9281,13 +9045,13 @@
         <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>150</v>
+        <v>289</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>151</v>
+        <v>435</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>152</v>
+        <v>436</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9338,7 +9102,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>153</v>
+        <v>434</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9350,10 +9114,10 @@
         <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>154</v>
+        <v>425</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -9361,21 +9125,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9387,17 +9151,15 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>131</v>
+        <v>438</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>132</v>
+        <v>439</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>76</v>
@@ -9434,34 +9196,34 @@
         <v>76</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>160</v>
+        <v>437</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>154</v>
+        <v>425</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9469,10 +9231,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9492,20 +9254,18 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>150</v>
+        <v>438</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -9554,7 +9314,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -9563,13 +9323,13 @@
         <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>128</v>
+        <v>425</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9577,10 +9337,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9594,26 +9354,24 @@
         <v>85</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>76</v>
@@ -9638,13 +9396,13 @@
         <v>76</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>479</v>
+        <v>76</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>480</v>
+        <v>76</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>76</v>
@@ -9662,7 +9420,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>481</v>
+        <v>444</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -9677,7 +9435,7 @@
         <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -9685,10 +9443,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9699,7 +9457,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9708,21 +9466,21 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>143</v>
+        <v>448</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
       </c>
@@ -9770,13 +9528,13 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>76</v>
@@ -9785,1300 +9543,14 @@
         <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>487</v>
+        <v>154</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AL84" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL84">
+  <autoFilter ref="A1:AL72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11088,7 +9560,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/clcore/temp/pages/StructureDefinition-CoreLocalizacionCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-CoreLocalizacionCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T14:28:19-03:00</t>
+    <t>2023-11-14T10:49:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/temp/pages/StructureDefinition-CoreLocalizacionCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-CoreLocalizacionCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:56:54-03:00</t>
+    <t>2023-11-02T09:33:03-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
